--- a/documents/第二版后端接口文档.xlsx
+++ b/documents/第二版后端接口文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XKWL\Desktop\mid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD2F0F-BF1C-4AA5-B06D-6CBA42B6EA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDB2AD-2D6A-498B-AF90-BAE23E4DAA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home/playback/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,36 +195,6 @@
   </si>
   <si>
     <t>暂时不实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页信息JSON
-{
-  状态码(statuscode),
-  返回消息(msg),
-  返回数据(data)[
-    直播数组(living_stream)[
-      直播1信息JSON
-      {
-        直播id(living_stream_id),
-        直播标题(living_stream),
-        直播封面地址(living_stream_cover_url),
-        直播标题(living_stream_title),
-        直播简介(living_stream_description),
-        直播回放数组(living_stream_playback)[
-          回放1信息JSON
-          { 
-            回放id(playback_id),
-            回放标题(playback_title),
-            回放产生时间(created_at)
-          }
-          回放2信息JSON......
-        ]
-      }
-      直播2信息JSON......
-    ]
-  ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,12 +312,100 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息JSON
+{
+  状态码(statuscode),
+  返回消息(msg),
+  返回数据(data)[
+    直播数组(living_stream)[
+      直播1信息JSON
+      {
+        直播id(living_stream_id),
+        直播标题(living_stream),
+        直播封面地址(living_stream_cover_url),
+        直播标题(living_stream_title),
+        直播简介(living_stream_description),
+        直播回放数组(living_stream_playback)[
+          回放1信息JSON
+          { 
+            回放id(playback_id),
+            回放标题(playback_title),
+            回放产生时间(created_at),
+            回放地址(playback_url)
+          }
+          回放2信息JSON......
+        ]
+      }
+      直播2信息JSON......
+    ]
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🐕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直播间-发送评论聊天室:living_{id}_comment_room'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直播间-发送讲解聊天室:living_{id}_expla_room'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直播间-广播聊天室:living_{id}_broadcast_room'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/playback/{id}(最终选择直接根据用户首页获取的信息跳转)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +419,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,6 +459,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -694,9 +757,10 @@
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="48.06640625" customWidth="1"/>
+    <col min="6" max="6" width="46.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,8 +776,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -727,10 +794,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -741,13 +811,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -758,13 +831,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -772,16 +848,19 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -789,16 +868,19 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -806,33 +888,39 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -843,13 +931,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -860,13 +951,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -877,115 +971,136 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -993,81 +1108,96 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="138.75" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
